--- a/data/trans_bre/POLIPATOLOGIA_Lim_5-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_5-Edad-trans_bre.xlsx
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.15309208048278</v>
+        <v>-1.043546838169185</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5517916754347294</v>
+        <v>0.5548845017923224</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="inlineStr"/>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.210951204468323</v>
+        <v>1.20943420357578</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.926725614901279</v>
+        <v>4.818976816961971</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
@@ -716,18 +716,18 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4553055588319814</v>
+        <v>0.4678266080977497</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4179748939834935</v>
+        <v>0.4266561706083118</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7512689116245242</v>
+        <v>0.5358481808107366</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.0139220210759574</v>
+        <v>-0.163364131453111</v>
       </c>
     </row>
     <row r="9">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.513220552423616</v>
+        <v>2.7388396405276</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.250205030749698</v>
+        <v>2.151580348501585</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.079025829117549</v>
+        <v>3.997279282304545</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
@@ -768,7 +768,7 @@
         <v>1.842735772146073</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.644508682588396</v>
+        <v>1.644508682588394</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>5.840731256225034</v>
@@ -777,7 +777,7 @@
         <v>5.007314181633486</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5788305857173621</v>
+        <v>0.5788305857173615</v>
       </c>
     </row>
     <row r="11">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.243946109521836</v>
+        <v>1.290768641316956</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7566349907541486</v>
+        <v>0.727232954750619</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3171222940495992</v>
+        <v>-0.4855763099632477</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.8260509235993538</v>
+        <v>0.9157353092170457</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.13785789538681</v>
+        <v>0.07060812823188656</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.09603253731974648</v>
+        <v>-0.1726403299001332</v>
       </c>
     </row>
     <row r="12">
@@ -814,20 +814,20 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.965588324613674</v>
+        <v>3.987870191264518</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.208644491053647</v>
+        <v>3.017634657314889</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.687018352974159</v>
+        <v>3.66456543943757</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>25.75416332308355</v>
+        <v>24.39934969178995</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>1.96138549907356</v>
+        <v>1.817467168731163</v>
       </c>
     </row>
     <row r="13">
@@ -868,22 +868,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.703564700074912</v>
+        <v>1.50176343709494</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.516060544821223</v>
+        <v>1.518942510067393</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.44169651217945</v>
+        <v>3.213815324408354</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.405536219441772</v>
+        <v>0.415299286476899</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4056920459697531</v>
+        <v>0.4397933044973099</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4694398018281064</v>
+        <v>0.4152205452234233</v>
       </c>
     </row>
     <row r="15">
@@ -894,22 +894,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.399357839918071</v>
+        <v>6.329014250382821</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.054043345723448</v>
+        <v>5.895577911000305</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.577325791450878</v>
+        <v>8.507375906817131</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5.479338521191178</v>
+        <v>4.418596474469937</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.135830509938328</v>
+        <v>4.35131572419686</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.993866834442179</v>
+        <v>1.922969223989398</v>
       </c>
     </row>
     <row r="16">
@@ -930,7 +930,7 @@
         <v>10.06909289580769</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9.131832804698426</v>
+        <v>9.131832804698428</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>3.293843359206709</v>
@@ -939,7 +939,7 @@
         <v>2.023065741374689</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>1.060919563129557</v>
+        <v>1.060919563129558</v>
       </c>
     </row>
     <row r="17">
@@ -950,22 +950,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.461911804953571</v>
+        <v>7.734260572419621</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.05231824135548</v>
+        <v>5.962971827260176</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.855379502554089</v>
+        <v>5.881124127030938</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>1.444180009808592</v>
+        <v>1.454442963104662</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8584321907371176</v>
+        <v>0.8271180667822744</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5435834575402869</v>
+        <v>0.5561237489742747</v>
       </c>
     </row>
     <row r="18">
@@ -976,22 +976,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.16116555906471</v>
+        <v>15.53629219914886</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.22175386049441</v>
+        <v>14.21181744928843</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.33419231500775</v>
+        <v>12.16929186739789</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6.535376679353669</v>
+        <v>6.790609737172647</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4.005746142107077</v>
+        <v>4.229196140018384</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.739785688593149</v>
+        <v>1.759000992582139</v>
       </c>
     </row>
     <row r="19">
@@ -1032,22 +1032,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.3924634571511882</v>
+        <v>-0.4106807507063827</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>9.255517747141516</v>
+        <v>9.190346012324056</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9.560227904098294</v>
+        <v>9.475296263769389</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.03012995689534302</v>
+        <v>-0.04070448514220935</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9836364322457657</v>
+        <v>1.036372620338065</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6640959296650202</v>
+        <v>0.6680194734997474</v>
       </c>
     </row>
     <row r="21">
@@ -1058,22 +1058,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>11.34042901879992</v>
+        <v>11.56914898612406</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>19.18403903799155</v>
+        <v>19.75309438759373</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17.37888917746515</v>
+        <v>17.4227519659728</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.036909773743198</v>
+        <v>1.089309135826919</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.900043550047903</v>
+        <v>4.09787410430047</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.674445961602736</v>
+        <v>1.74597851545718</v>
       </c>
     </row>
     <row r="22">
@@ -1103,7 +1103,7 @@
         <v>0.544458714136539</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6342568316104107</v>
+        <v>0.6342568316104105</v>
       </c>
     </row>
     <row r="23">
@@ -1114,22 +1114,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.185983685184311</v>
+        <v>7.188794270143639</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.774243043775939</v>
+        <v>2.703348982148672</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11.61951504854454</v>
+        <v>11.87500259931456</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.2523013431615471</v>
+        <v>0.2943775937261804</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1393183147057908</v>
+        <v>0.1403491474033722</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3892055743265376</v>
+        <v>0.3876022700099749</v>
       </c>
     </row>
     <row r="24">
@@ -1140,22 +1140,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>21.47380139829461</v>
+        <v>21.32201985606197</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.09820547339061</v>
+        <v>15.93678660267142</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>22.29980871795395</v>
+        <v>22.36489882924364</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.361900168595519</v>
+        <v>1.391603576593041</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.194736836198391</v>
+        <v>1.182664400293411</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9592110697285363</v>
+        <v>0.9516933241257097</v>
       </c>
     </row>
     <row r="25">
@@ -1196,22 +1196,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4.569823297415285</v>
+        <v>4.548137679938864</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.66153410890546</v>
+        <v>4.705218698530896</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6.857719485682772</v>
+        <v>6.739400267931593</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1.113067664060267</v>
+        <v>1.097886038926681</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1.307971707726002</v>
+        <v>1.307522069005215</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.905713807155581</v>
+        <v>0.8913057006029614</v>
       </c>
     </row>
     <row r="27">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.908273058179355</v>
+        <v>6.978045659052872</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.004419170418251</v>
+        <v>7.134873840276572</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9.295369438111102</v>
+        <v>9.124347953886005</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.219664430317888</v>
+        <v>2.268305366100129</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.630603480997502</v>
+        <v>2.632323417955749</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.4601403602798</v>
+        <v>1.440399271386344</v>
       </c>
     </row>
     <row r="28">
